--- a/data/pca/factorExposure/factorExposure_2015-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01919941211669351</v>
+        <v>0.00787648544388291</v>
       </c>
       <c r="C2">
-        <v>-0.01999846188266556</v>
+        <v>0.0489815752320176</v>
       </c>
       <c r="D2">
-        <v>0.1098877455996406</v>
+        <v>0.134603191993912</v>
       </c>
       <c r="E2">
-        <v>-0.003352123662123494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01039937129781852</v>
+      </c>
+      <c r="F2">
+        <v>0.01956646822943137</v>
+      </c>
+      <c r="G2">
+        <v>0.1277242549236973</v>
+      </c>
+      <c r="H2">
+        <v>0.05476639291885727</v>
+      </c>
+      <c r="I2">
+        <v>0.04440368989542076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.006175535334276182</v>
+        <v>-0.005404149094749817</v>
       </c>
       <c r="C3">
-        <v>-0.006822166845420289</v>
+        <v>0.001021982087587668</v>
       </c>
       <c r="D3">
-        <v>-0.009884293556470894</v>
+        <v>-0.002153248351649276</v>
       </c>
       <c r="E3">
-        <v>0.002280856321603464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.006454986506746993</v>
+      </c>
+      <c r="F3">
+        <v>-0.00321944544495554</v>
+      </c>
+      <c r="G3">
+        <v>0.001063658167680368</v>
+      </c>
+      <c r="H3">
+        <v>-0.01564330237922814</v>
+      </c>
+      <c r="I3">
+        <v>0.00383195789047901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04502817155131797</v>
+        <v>0.01766876139594539</v>
       </c>
       <c r="C4">
-        <v>-0.06931488097081748</v>
+        <v>0.1009180861975198</v>
       </c>
       <c r="D4">
-        <v>0.1338210220765995</v>
+        <v>0.1386555870139533</v>
       </c>
       <c r="E4">
-        <v>-0.07821559202152949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01183785072348964</v>
+      </c>
+      <c r="F4">
+        <v>0.08722110432356775</v>
+      </c>
+      <c r="G4">
+        <v>0.006904959801029622</v>
+      </c>
+      <c r="H4">
+        <v>0.05482868114178351</v>
+      </c>
+      <c r="I4">
+        <v>-0.05726779893146603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02374614254375738</v>
+        <v>0.02613070906587214</v>
       </c>
       <c r="C6">
-        <v>-0.01211691082881804</v>
+        <v>0.03210003964320781</v>
       </c>
       <c r="D6">
-        <v>0.1389611287498239</v>
+        <v>0.1275750413210356</v>
       </c>
       <c r="E6">
-        <v>-0.03472597589399474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04899330720129739</v>
+      </c>
+      <c r="F6">
+        <v>0.05109872816487352</v>
+      </c>
+      <c r="G6">
+        <v>0.005410827034114283</v>
+      </c>
+      <c r="H6">
+        <v>0.06615822029092512</v>
+      </c>
+      <c r="I6">
+        <v>0.002163300420388903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.005815177319658076</v>
+        <v>0.007531106980884874</v>
       </c>
       <c r="C7">
-        <v>-0.0216069751961287</v>
+        <v>0.03303341415450124</v>
       </c>
       <c r="D7">
-        <v>0.1116029655010291</v>
+        <v>0.09944686243506135</v>
       </c>
       <c r="E7">
-        <v>-0.001473755142407154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05343736660964667</v>
+      </c>
+      <c r="F7">
+        <v>0.01267303491192788</v>
+      </c>
+      <c r="G7">
+        <v>-0.001067142944856325</v>
+      </c>
+      <c r="H7">
+        <v>0.08212804218463447</v>
+      </c>
+      <c r="I7">
+        <v>0.01415865216209858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003539592668202422</v>
+        <v>-0.01363656003373642</v>
       </c>
       <c r="C8">
-        <v>-0.02518602480862917</v>
+        <v>0.03131163849569064</v>
       </c>
       <c r="D8">
-        <v>0.08028954276031074</v>
+        <v>0.0779033843918483</v>
       </c>
       <c r="E8">
-        <v>-0.02546056480673233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01972874705686911</v>
+      </c>
+      <c r="F8">
+        <v>0.04578335607028518</v>
+      </c>
+      <c r="G8">
+        <v>0.06230374384514266</v>
+      </c>
+      <c r="H8">
+        <v>0.004654318321692773</v>
+      </c>
+      <c r="I8">
+        <v>0.026526684808881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03851187202748393</v>
+        <v>0.01244080773124082</v>
       </c>
       <c r="C9">
-        <v>-0.05909712285576871</v>
+        <v>0.08382463878876936</v>
       </c>
       <c r="D9">
-        <v>0.1330562744430614</v>
+        <v>0.1200303477027355</v>
       </c>
       <c r="E9">
-        <v>-0.06288473417545828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004022020077627263</v>
+      </c>
+      <c r="F9">
+        <v>0.05779548935770452</v>
+      </c>
+      <c r="G9">
+        <v>-0.01269998620559828</v>
+      </c>
+      <c r="H9">
+        <v>0.06741761295166181</v>
+      </c>
+      <c r="I9">
+        <v>-0.02220321243122966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1588003568072962</v>
+        <v>0.233583508915114</v>
       </c>
       <c r="C10">
-        <v>0.1766851150229103</v>
+        <v>-0.09751292518366669</v>
       </c>
       <c r="D10">
-        <v>0.008247948427890062</v>
+        <v>-0.006182053151657287</v>
       </c>
       <c r="E10">
-        <v>-0.04841452250397092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02431932564794803</v>
+      </c>
+      <c r="F10">
+        <v>0.04268174812920697</v>
+      </c>
+      <c r="G10">
+        <v>0.005335770032295311</v>
+      </c>
+      <c r="H10">
+        <v>-0.06507210833283697</v>
+      </c>
+      <c r="I10">
+        <v>0.08687470759856963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02131134155834812</v>
+        <v>0.008713793076999873</v>
       </c>
       <c r="C11">
-        <v>-0.0393701335882435</v>
+        <v>0.051824305721572</v>
       </c>
       <c r="D11">
-        <v>0.05036766991668351</v>
+        <v>0.04364414241725945</v>
       </c>
       <c r="E11">
-        <v>0.0163819105926536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01883388900832882</v>
+      </c>
+      <c r="F11">
+        <v>-0.0123719348272591</v>
+      </c>
+      <c r="G11">
+        <v>-0.00413733303268536</v>
+      </c>
+      <c r="H11">
+        <v>0.04855312849383678</v>
+      </c>
+      <c r="I11">
+        <v>-0.05111675859825823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02220481879723374</v>
+        <v>0.009233505735029922</v>
       </c>
       <c r="C12">
-        <v>-0.03946336621547698</v>
+        <v>0.04829154326665905</v>
       </c>
       <c r="D12">
-        <v>0.06256866593503183</v>
+        <v>0.04890238857653177</v>
       </c>
       <c r="E12">
-        <v>0.006387396330175488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01847038788588333</v>
+      </c>
+      <c r="F12">
+        <v>-0.01599837119777946</v>
+      </c>
+      <c r="G12">
+        <v>-0.02230158853785296</v>
+      </c>
+      <c r="H12">
+        <v>0.07327862183786382</v>
+      </c>
+      <c r="I12">
+        <v>-0.02862936634696774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006423984917640664</v>
+        <v>-0.002432930148504478</v>
       </c>
       <c r="C13">
-        <v>-0.02283631075058381</v>
+        <v>0.04137795013098655</v>
       </c>
       <c r="D13">
-        <v>0.1482814286596461</v>
+        <v>0.1470842676729298</v>
       </c>
       <c r="E13">
-        <v>-0.03084372148999717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04093827755242995</v>
+      </c>
+      <c r="F13">
+        <v>0.03965964030700476</v>
+      </c>
+      <c r="G13">
+        <v>0.03905067415325375</v>
+      </c>
+      <c r="H13">
+        <v>0.07890204915535799</v>
+      </c>
+      <c r="I13">
+        <v>0.1198515573805268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.00429256664341601</v>
+        <v>-0.002315841083668346</v>
       </c>
       <c r="C14">
-        <v>-0.01720385417081395</v>
+        <v>0.02648519496305928</v>
       </c>
       <c r="D14">
-        <v>0.09830077014616959</v>
+        <v>0.1036774981530988</v>
       </c>
       <c r="E14">
-        <v>-0.009130685463653372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.02993856098082576</v>
+      </c>
+      <c r="F14">
+        <v>0.0308748988179222</v>
+      </c>
+      <c r="G14">
+        <v>0.02344070070318084</v>
+      </c>
+      <c r="H14">
+        <v>0.1307527942863607</v>
+      </c>
+      <c r="I14">
+        <v>0.01991939616848677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001551594360008404</v>
+        <v>-0.00153551808913722</v>
       </c>
       <c r="C15">
-        <v>-0.01037596310094375</v>
+        <v>0.02005914672339392</v>
       </c>
       <c r="D15">
-        <v>0.02742204483776494</v>
+        <v>0.05480979425594525</v>
       </c>
       <c r="E15">
-        <v>0.003836342077734536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006227244493544968</v>
+      </c>
+      <c r="F15">
+        <v>0.005097673669408694</v>
+      </c>
+      <c r="G15">
+        <v>0.02438373920287948</v>
+      </c>
+      <c r="H15">
+        <v>0.02892503980218426</v>
+      </c>
+      <c r="I15">
+        <v>-0.01760794073024996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0214767830890235</v>
+        <v>0.0092539024214552</v>
       </c>
       <c r="C16">
-        <v>-0.03730787807613458</v>
+        <v>0.04787989534097746</v>
       </c>
       <c r="D16">
-        <v>0.05708369138421595</v>
+        <v>0.04492242109086719</v>
       </c>
       <c r="E16">
-        <v>0.009300565158875404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02095406229090663</v>
+      </c>
+      <c r="F16">
+        <v>-0.008186880324602398</v>
+      </c>
+      <c r="G16">
+        <v>-0.01540101533507372</v>
+      </c>
+      <c r="H16">
+        <v>0.05478127899524933</v>
+      </c>
+      <c r="I16">
+        <v>-0.04606086764869002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006315616874384184</v>
+        <v>0.0006730370082060014</v>
       </c>
       <c r="C19">
-        <v>-0.01880747792020922</v>
+        <v>0.01817910408868031</v>
       </c>
       <c r="D19">
-        <v>0.1079607273075307</v>
+        <v>0.06913704583499182</v>
       </c>
       <c r="E19">
-        <v>-0.0394952738465745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01930339089251785</v>
+      </c>
+      <c r="F19">
+        <v>0.007471518097462621</v>
+      </c>
+      <c r="G19">
+        <v>0.0117281916073954</v>
+      </c>
+      <c r="H19">
+        <v>0.06308909903115402</v>
+      </c>
+      <c r="I19">
+        <v>0.04674035409604198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004450609587315083</v>
+        <v>0.003250353911416642</v>
       </c>
       <c r="C20">
-        <v>-0.02376172629863383</v>
+        <v>0.03705626353429838</v>
       </c>
       <c r="D20">
-        <v>0.0890769670161367</v>
+        <v>0.09561361955823371</v>
       </c>
       <c r="E20">
-        <v>-0.03352139810594593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.00880832672393685</v>
+      </c>
+      <c r="F20">
+        <v>0.0266665319455695</v>
+      </c>
+      <c r="G20">
+        <v>-0.002991658838269089</v>
+      </c>
+      <c r="H20">
+        <v>0.05903501727630499</v>
+      </c>
+      <c r="I20">
+        <v>-0.02269019503635789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00768874980064306</v>
+        <v>0.0006190830985236071</v>
       </c>
       <c r="C21">
-        <v>-0.02920362115062355</v>
+        <v>0.03978647996597568</v>
       </c>
       <c r="D21">
-        <v>0.164709295610858</v>
+        <v>0.1317626326313692</v>
       </c>
       <c r="E21">
-        <v>-0.07120349017617465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.001556396261723214</v>
+      </c>
+      <c r="F21">
+        <v>0.08226188873661194</v>
+      </c>
+      <c r="G21">
+        <v>0.03112323532105387</v>
+      </c>
+      <c r="H21">
+        <v>0.1973262943516127</v>
+      </c>
+      <c r="I21">
+        <v>0.169680811249849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001395609746418149</v>
+        <v>-0.01132792899353209</v>
       </c>
       <c r="C22">
-        <v>-0.06088369354491683</v>
+        <v>0.08155786714461491</v>
       </c>
       <c r="D22">
-        <v>0.2372039235609924</v>
+        <v>0.2739448686492367</v>
       </c>
       <c r="E22">
-        <v>0.02085153107370753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04427486666836376</v>
+      </c>
+      <c r="F22">
+        <v>0.02848532144401432</v>
+      </c>
+      <c r="G22">
+        <v>0.3318071143197505</v>
+      </c>
+      <c r="H22">
+        <v>-0.4032695599375852</v>
+      </c>
+      <c r="I22">
+        <v>-0.1308744745160526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001660186257396009</v>
+        <v>-0.01093952580281532</v>
       </c>
       <c r="C23">
-        <v>-0.06137110863755516</v>
+        <v>0.08257930453776224</v>
       </c>
       <c r="D23">
-        <v>0.2367768519554662</v>
+        <v>0.274674572994924</v>
       </c>
       <c r="E23">
-        <v>0.02067722381242687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04093440372091699</v>
+      </c>
+      <c r="F23">
+        <v>0.02808444788664109</v>
+      </c>
+      <c r="G23">
+        <v>0.3313246728388997</v>
+      </c>
+      <c r="H23">
+        <v>-0.4033035500142731</v>
+      </c>
+      <c r="I23">
+        <v>-0.1315160939144411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02750520853935234</v>
+        <v>0.008416460243862566</v>
       </c>
       <c r="C24">
-        <v>-0.05567010276863159</v>
+        <v>0.06466235655169562</v>
       </c>
       <c r="D24">
-        <v>0.06930539225691315</v>
+        <v>0.0527950308066619</v>
       </c>
       <c r="E24">
-        <v>0.005562375717433604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02515845310899361</v>
+      </c>
+      <c r="F24">
+        <v>-0.005867087526711736</v>
+      </c>
+      <c r="G24">
+        <v>-0.0056704931632188</v>
+      </c>
+      <c r="H24">
+        <v>0.07874659125560869</v>
+      </c>
+      <c r="I24">
+        <v>-0.04070067422677175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02906325684421504</v>
+        <v>0.01233839248746246</v>
       </c>
       <c r="C25">
-        <v>-0.0466295799001606</v>
+        <v>0.05954434603920337</v>
       </c>
       <c r="D25">
-        <v>0.06139704642902717</v>
+        <v>0.0511943457679671</v>
       </c>
       <c r="E25">
-        <v>0.001011696347309933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01101095385616334</v>
+      </c>
+      <c r="F25">
+        <v>-0.00847406126998345</v>
+      </c>
+      <c r="G25">
+        <v>-0.01415381018115409</v>
+      </c>
+      <c r="H25">
+        <v>0.04417066441319411</v>
+      </c>
+      <c r="I25">
+        <v>-0.03115874425352357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008821476774299843</v>
+        <v>0.005676149291095951</v>
       </c>
       <c r="C26">
-        <v>-0.01321891649731564</v>
+        <v>0.0253464804540293</v>
       </c>
       <c r="D26">
-        <v>0.0806132138160401</v>
+        <v>0.06868717037744654</v>
       </c>
       <c r="E26">
-        <v>-0.01849282400005228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02882142952699269</v>
+      </c>
+      <c r="F26">
+        <v>0.02715790870021786</v>
+      </c>
+      <c r="G26">
+        <v>-0.0005052384327787574</v>
+      </c>
+      <c r="H26">
+        <v>0.0923851937797642</v>
+      </c>
+      <c r="I26">
+        <v>0.03818756235837437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2437697288021028</v>
+        <v>0.3198311141595684</v>
       </c>
       <c r="C28">
-        <v>0.2163465445242915</v>
+        <v>-0.09636924028234303</v>
       </c>
       <c r="D28">
-        <v>0.0196614590121729</v>
+        <v>-0.006763633382460189</v>
       </c>
       <c r="E28">
-        <v>-0.06607394121162578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05567627087214959</v>
+      </c>
+      <c r="F28">
+        <v>0.03998000405451557</v>
+      </c>
+      <c r="G28">
+        <v>0.03351337409642193</v>
+      </c>
+      <c r="H28">
+        <v>-0.01265271652185635</v>
+      </c>
+      <c r="I28">
+        <v>0.1256670913364526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0001458568345949046</v>
+        <v>-0.003041183659727566</v>
       </c>
       <c r="C29">
-        <v>-0.02094069954362861</v>
+        <v>0.02972082259161673</v>
       </c>
       <c r="D29">
-        <v>0.09652621522569332</v>
+        <v>0.09977316261451825</v>
       </c>
       <c r="E29">
-        <v>-0.014209040588358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04010028229018972</v>
+      </c>
+      <c r="F29">
+        <v>0.03743624635203024</v>
+      </c>
+      <c r="G29">
+        <v>0.01297805394688077</v>
+      </c>
+      <c r="H29">
+        <v>0.1387392362872739</v>
+      </c>
+      <c r="I29">
+        <v>0.01984773936403532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02482763394419469</v>
+        <v>0.01314128460857026</v>
       </c>
       <c r="C30">
-        <v>-0.05740320182071929</v>
+        <v>0.08347980023479204</v>
       </c>
       <c r="D30">
-        <v>0.1656077064642028</v>
+        <v>0.1611172582258883</v>
       </c>
       <c r="E30">
-        <v>-0.02108159652082111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03999857250971939</v>
+      </c>
+      <c r="F30">
+        <v>0.03667185062336628</v>
+      </c>
+      <c r="G30">
+        <v>0.031859261201835</v>
+      </c>
+      <c r="H30">
+        <v>0.06320036862371142</v>
+      </c>
+      <c r="I30">
+        <v>-0.06979817213715847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04436982392015192</v>
+        <v>0.00812942613673184</v>
       </c>
       <c r="C31">
-        <v>-0.0827106994106659</v>
+        <v>0.09218636518180184</v>
       </c>
       <c r="D31">
-        <v>0.06850050398449906</v>
+        <v>0.04073939494068252</v>
       </c>
       <c r="E31">
-        <v>-0.01209554239289624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.009522624699710342</v>
+      </c>
+      <c r="F31">
+        <v>0.01372747781079334</v>
+      </c>
+      <c r="G31">
+        <v>0.008033483409032857</v>
+      </c>
+      <c r="H31">
+        <v>0.04662121772243263</v>
+      </c>
+      <c r="I31">
+        <v>0.0548767064693511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02177480556797173</v>
+        <v>0.01080112562413794</v>
       </c>
       <c r="C32">
-        <v>-0.03046829148857644</v>
+        <v>0.0445750775131413</v>
       </c>
       <c r="D32">
-        <v>0.1063543957868828</v>
+        <v>0.1113816678746372</v>
       </c>
       <c r="E32">
-        <v>-0.06717422679437782</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003788645298851983</v>
+      </c>
+      <c r="F32">
+        <v>0.04535071670008921</v>
+      </c>
+      <c r="G32">
+        <v>0.02162212379209914</v>
+      </c>
+      <c r="H32">
+        <v>0.04123898711109934</v>
+      </c>
+      <c r="I32">
+        <v>0.07616878272818325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01333052264163698</v>
+        <v>0.005357891509250141</v>
       </c>
       <c r="C33">
-        <v>-0.03958570305938849</v>
+        <v>0.05502133067934954</v>
       </c>
       <c r="D33">
-        <v>0.1409347883292704</v>
+        <v>0.1243756685348434</v>
       </c>
       <c r="E33">
-        <v>-0.03798485120505297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01668132414680133</v>
+      </c>
+      <c r="F33">
+        <v>0.02633340028640161</v>
+      </c>
+      <c r="G33">
+        <v>0.005187382234146478</v>
+      </c>
+      <c r="H33">
+        <v>0.06771330018397759</v>
+      </c>
+      <c r="I33">
+        <v>0.006926686676419397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02458402512772837</v>
+        <v>0.006043098996785084</v>
       </c>
       <c r="C34">
-        <v>-0.05803806443133705</v>
+        <v>0.0613138810827439</v>
       </c>
       <c r="D34">
-        <v>0.05123986195394162</v>
+        <v>0.03122622363555134</v>
       </c>
       <c r="E34">
-        <v>0.04815118019036835</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02841540763009779</v>
+      </c>
+      <c r="F34">
+        <v>-0.03813688054786645</v>
+      </c>
+      <c r="G34">
+        <v>-0.009667516363731079</v>
+      </c>
+      <c r="H34">
+        <v>0.05902879268390451</v>
+      </c>
+      <c r="I34">
+        <v>-0.01792625920798381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001182489149088964</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.007285284440157551</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02921942741410206</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.00410065726710747</v>
+      </c>
+      <c r="F35">
+        <v>0.01221591706290388</v>
+      </c>
+      <c r="G35">
+        <v>0.007760897868715086</v>
+      </c>
+      <c r="H35">
+        <v>0.03788646803476731</v>
+      </c>
+      <c r="I35">
+        <v>-0.02138526771401564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008557293118428278</v>
+        <v>0.005669373343798948</v>
       </c>
       <c r="C36">
-        <v>-0.004907917488143951</v>
+        <v>0.01878322477810443</v>
       </c>
       <c r="D36">
-        <v>0.08738405137075937</v>
+        <v>0.07501417381176938</v>
       </c>
       <c r="E36">
-        <v>-0.04135460661110787</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.006673870902968462</v>
+      </c>
+      <c r="F36">
+        <v>0.03676881835330373</v>
+      </c>
+      <c r="G36">
+        <v>0.002431556328315664</v>
+      </c>
+      <c r="H36">
+        <v>0.06087688595727878</v>
+      </c>
+      <c r="I36">
+        <v>0.02430794032208521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006339579971499112</v>
+        <v>0.01175208085663616</v>
       </c>
       <c r="C38">
-        <v>-0.005431352034038877</v>
+        <v>0.0153754737364806</v>
       </c>
       <c r="D38">
-        <v>0.08434346424623217</v>
+        <v>0.08419432772461696</v>
       </c>
       <c r="E38">
-        <v>-0.008990788068996147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0109950950426191</v>
+      </c>
+      <c r="F38">
+        <v>-0.005320775929710691</v>
+      </c>
+      <c r="G38">
+        <v>0.02413241354207988</v>
+      </c>
+      <c r="H38">
+        <v>0.05575400996754826</v>
+      </c>
+      <c r="I38">
+        <v>0.02649659981794744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02005536322805718</v>
+        <v>0.00382216938788493</v>
       </c>
       <c r="C39">
-        <v>-0.05543644644539553</v>
+        <v>0.07380181686234098</v>
       </c>
       <c r="D39">
-        <v>0.1157714060470427</v>
+        <v>0.1031274278421976</v>
       </c>
       <c r="E39">
-        <v>0.01953532399078524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04813611993487334</v>
+      </c>
+      <c r="F39">
+        <v>-0.002679872575593845</v>
+      </c>
+      <c r="G39">
+        <v>-0.006271712702525418</v>
+      </c>
+      <c r="H39">
+        <v>0.1088183689867639</v>
+      </c>
+      <c r="I39">
+        <v>-0.06746952315167506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01144220395625252</v>
+        <v>0.009664380106368536</v>
       </c>
       <c r="C40">
-        <v>-0.01566139059193273</v>
+        <v>0.02455423338618801</v>
       </c>
       <c r="D40">
-        <v>0.1192992799027221</v>
+        <v>0.09576123090536451</v>
       </c>
       <c r="E40">
-        <v>0.02026827543369913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04547767120157126</v>
+      </c>
+      <c r="F40">
+        <v>-0.0191114717781388</v>
+      </c>
+      <c r="G40">
+        <v>0.07028364646441856</v>
+      </c>
+      <c r="H40">
+        <v>0.08121343076955795</v>
+      </c>
+      <c r="I40">
+        <v>0.0892732468491259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01131027828272226</v>
+        <v>0.01258041218117031</v>
       </c>
       <c r="C41">
-        <v>-0.004889624985371887</v>
+        <v>0.01467188141053643</v>
       </c>
       <c r="D41">
-        <v>0.05020183765964414</v>
+        <v>0.04068419975855422</v>
       </c>
       <c r="E41">
-        <v>-0.03077022655017481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02015400391235454</v>
+      </c>
+      <c r="F41">
+        <v>0.01679513881713686</v>
+      </c>
+      <c r="G41">
+        <v>0.0131280867668381</v>
+      </c>
+      <c r="H41">
+        <v>0.03752532675808648</v>
+      </c>
+      <c r="I41">
+        <v>0.02772247749058276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005120550312293625</v>
+        <v>0.006199477220198139</v>
       </c>
       <c r="C43">
-        <v>-0.005365461005031976</v>
+        <v>0.01294647172098437</v>
       </c>
       <c r="D43">
-        <v>0.06108810103466473</v>
+        <v>0.04955964576844274</v>
       </c>
       <c r="E43">
-        <v>-0.01976233425716114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004358859722918855</v>
+      </c>
+      <c r="F43">
+        <v>0.01358249283250815</v>
+      </c>
+      <c r="G43">
+        <v>0.01241097446678839</v>
+      </c>
+      <c r="H43">
+        <v>0.05516424069193145</v>
+      </c>
+      <c r="I43">
+        <v>0.0122030417076649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0171841296935019</v>
+        <v>0.00897682032809078</v>
       </c>
       <c r="C44">
-        <v>-0.02412400312912448</v>
+        <v>0.04376129265073934</v>
       </c>
       <c r="D44">
-        <v>0.1125814710165139</v>
+        <v>0.1168817147235563</v>
       </c>
       <c r="E44">
-        <v>-0.04419297140808159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01970359962290935</v>
+      </c>
+      <c r="F44">
+        <v>0.02910346666772417</v>
+      </c>
+      <c r="G44">
+        <v>0.02343213449277267</v>
+      </c>
+      <c r="H44">
+        <v>0.05163561068536433</v>
+      </c>
+      <c r="I44">
+        <v>-0.05804050459091244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.008064239223136881</v>
+        <v>-0.001412068429707694</v>
       </c>
       <c r="C46">
-        <v>-0.02706363780156715</v>
+        <v>0.03856748944667755</v>
       </c>
       <c r="D46">
-        <v>0.09085981975882305</v>
+        <v>0.08365628185985399</v>
       </c>
       <c r="E46">
-        <v>-0.01833166691503878</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02701500775882648</v>
+      </c>
+      <c r="F46">
+        <v>0.02961134986010123</v>
+      </c>
+      <c r="G46">
+        <v>0.01917972538745496</v>
+      </c>
+      <c r="H46">
+        <v>0.1406775655066755</v>
+      </c>
+      <c r="I46">
+        <v>0.005162469987338815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08672983893060454</v>
+        <v>0.03304028482492201</v>
       </c>
       <c r="C47">
-        <v>-0.102255767398889</v>
+        <v>0.1250714074713113</v>
       </c>
       <c r="D47">
-        <v>0.05888838163179144</v>
+        <v>0.0239860110850169</v>
       </c>
       <c r="E47">
-        <v>-0.02728055482760865</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01923816716750378</v>
+      </c>
+      <c r="F47">
+        <v>-0.01056992073203464</v>
+      </c>
+      <c r="G47">
+        <v>-0.04220920518954029</v>
+      </c>
+      <c r="H47">
+        <v>0.04615712331218739</v>
+      </c>
+      <c r="I47">
+        <v>0.1184262626321688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007322609936978184</v>
+        <v>0.003812894133163376</v>
       </c>
       <c r="C48">
-        <v>-0.01502041332321495</v>
+        <v>0.02856865692678619</v>
       </c>
       <c r="D48">
-        <v>0.09206685814701454</v>
+        <v>0.07910192278814497</v>
       </c>
       <c r="E48">
-        <v>-0.05411452700109032</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0001945610799756517</v>
+      </c>
+      <c r="F48">
+        <v>0.0432262106243871</v>
+      </c>
+      <c r="G48">
+        <v>0.01055905743064899</v>
+      </c>
+      <c r="H48">
+        <v>0.09921853252225907</v>
+      </c>
+      <c r="I48">
+        <v>0.005275554532497317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04111235977716811</v>
+        <v>0.0117487293087596</v>
       </c>
       <c r="C50">
-        <v>-0.05890348394804357</v>
+        <v>0.07344738434791938</v>
       </c>
       <c r="D50">
-        <v>0.06569867364631829</v>
+        <v>0.04498040700980176</v>
       </c>
       <c r="E50">
-        <v>-0.008871405896050373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.002897135475448774</v>
+      </c>
+      <c r="F50">
+        <v>0.007714050768165775</v>
+      </c>
+      <c r="G50">
+        <v>0.02303124688125591</v>
+      </c>
+      <c r="H50">
+        <v>0.03036106750552637</v>
+      </c>
+      <c r="I50">
+        <v>0.09205252656805961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002255333711423158</v>
+        <v>0.0002695022203438066</v>
       </c>
       <c r="C51">
-        <v>-0.002851737514728044</v>
+        <v>0.01478929084109309</v>
       </c>
       <c r="D51">
-        <v>0.05681564560862098</v>
+        <v>0.06147896415400496</v>
       </c>
       <c r="E51">
-        <v>-0.001623140786701697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03844377120783397</v>
+      </c>
+      <c r="F51">
+        <v>0.03862390684631738</v>
+      </c>
+      <c r="G51">
+        <v>0.03367225359902744</v>
+      </c>
+      <c r="H51">
+        <v>0.04543134443120368</v>
+      </c>
+      <c r="I51">
+        <v>0.01839569961207275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1122646170657064</v>
+        <v>0.05715720844620573</v>
       </c>
       <c r="C53">
-        <v>-0.11861399313346</v>
+        <v>0.1568113200442235</v>
       </c>
       <c r="D53">
-        <v>0.01848111261076272</v>
+        <v>-0.0129414723287511</v>
       </c>
       <c r="E53">
-        <v>-0.05721701692136304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03444695816719183</v>
+      </c>
+      <c r="F53">
+        <v>0.04595294282475969</v>
+      </c>
+      <c r="G53">
+        <v>0.003358410965478095</v>
+      </c>
+      <c r="H53">
+        <v>0.001277504483119398</v>
+      </c>
+      <c r="I53">
+        <v>0.05985794219050976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0160420306961209</v>
+        <v>0.01052596505336465</v>
       </c>
       <c r="C54">
-        <v>-0.02116952138875247</v>
+        <v>0.03802690775566632</v>
       </c>
       <c r="D54">
-        <v>0.09937795111331321</v>
+        <v>0.08387551127855017</v>
       </c>
       <c r="E54">
-        <v>-0.0004889628118187789</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01162398491003157</v>
+      </c>
+      <c r="F54">
+        <v>-0.002023097709031165</v>
+      </c>
+      <c r="G54">
+        <v>0.0274594155851624</v>
+      </c>
+      <c r="H54">
+        <v>0.09259919891860682</v>
+      </c>
+      <c r="I54">
+        <v>0.02636940244901321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09995623106125409</v>
+        <v>0.04325982287265241</v>
       </c>
       <c r="C55">
-        <v>-0.1000195108760251</v>
+        <v>0.129750727189513</v>
       </c>
       <c r="D55">
-        <v>0.00769316223004587</v>
+        <v>-0.02790242411764855</v>
       </c>
       <c r="E55">
-        <v>-0.01195239764888858</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003488185334845127</v>
+      </c>
+      <c r="F55">
+        <v>0.0147215012396787</v>
+      </c>
+      <c r="G55">
+        <v>0.0156758248569921</v>
+      </c>
+      <c r="H55">
+        <v>0.006659523012160658</v>
+      </c>
+      <c r="I55">
+        <v>0.07178701410349785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1396788237860168</v>
+        <v>0.06170760930758652</v>
       </c>
       <c r="C56">
-        <v>-0.1341184442382048</v>
+        <v>0.1882805767539235</v>
       </c>
       <c r="D56">
-        <v>0.005036392491440883</v>
+        <v>-0.02433576018711963</v>
       </c>
       <c r="E56">
-        <v>-0.01199820253101292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0311101536546602</v>
+      </c>
+      <c r="F56">
+        <v>0.01213192418385475</v>
+      </c>
+      <c r="G56">
+        <v>0.05972836004956592</v>
+      </c>
+      <c r="H56">
+        <v>-0.005043664546014581</v>
+      </c>
+      <c r="I56">
+        <v>0.08721857435741354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.004212225466011554</v>
+        <v>0.002954170907951052</v>
       </c>
       <c r="C58">
-        <v>-0.00984924204131128</v>
+        <v>0.04791474797006318</v>
       </c>
       <c r="D58">
-        <v>0.217983247002784</v>
+        <v>0.2836636115845811</v>
       </c>
       <c r="E58">
-        <v>-0.07807824682020979</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.0169152152305385</v>
+      </c>
+      <c r="F58">
+        <v>0.09861151592605853</v>
+      </c>
+      <c r="G58">
+        <v>0.1235452731443336</v>
+      </c>
+      <c r="H58">
+        <v>-0.09577343675421876</v>
+      </c>
+      <c r="I58">
+        <v>-0.08149087950430989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1700465378485224</v>
+        <v>0.2476273027784128</v>
       </c>
       <c r="C59">
-        <v>0.1561340942238204</v>
+        <v>-0.06695931922754964</v>
       </c>
       <c r="D59">
-        <v>0.04693908070336839</v>
+        <v>0.05893962106838269</v>
       </c>
       <c r="E59">
-        <v>-0.03587078998461928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03313965724515344</v>
+      </c>
+      <c r="F59">
+        <v>0.01408190971325205</v>
+      </c>
+      <c r="G59">
+        <v>0.001922376826008955</v>
+      </c>
+      <c r="H59">
+        <v>-0.01129763983997944</v>
+      </c>
+      <c r="I59">
+        <v>0.05657434182284025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1953019685546303</v>
+        <v>0.1529915372067971</v>
       </c>
       <c r="C60">
-        <v>-0.09103953069429713</v>
+        <v>0.1688625916408717</v>
       </c>
       <c r="D60">
-        <v>0.1892134202910291</v>
+        <v>0.09472669373524528</v>
       </c>
       <c r="E60">
-        <v>0.168566966713888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2203784007110714</v>
+      </c>
+      <c r="F60">
+        <v>-0.1728150512980445</v>
+      </c>
+      <c r="G60">
+        <v>-0.2428931208646788</v>
+      </c>
+      <c r="H60">
+        <v>-0.2032997419969926</v>
+      </c>
+      <c r="I60">
+        <v>0.008466303014683273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03040386865856126</v>
+        <v>0.01170743884279449</v>
       </c>
       <c r="C61">
-        <v>-0.05165210798926131</v>
+        <v>0.07026115385858531</v>
       </c>
       <c r="D61">
-        <v>0.1024770503163704</v>
+        <v>0.08113653916288496</v>
       </c>
       <c r="E61">
-        <v>0.008945079178603191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03583899060083904</v>
+      </c>
+      <c r="F61">
+        <v>-0.01271301936915638</v>
+      </c>
+      <c r="G61">
+        <v>-0.02056571177029726</v>
+      </c>
+      <c r="H61">
+        <v>0.0958566223131435</v>
+      </c>
+      <c r="I61">
+        <v>-0.02161887133955812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009161032158444339</v>
+        <v>0.002022976942285432</v>
       </c>
       <c r="C63">
-        <v>-0.02528636812245839</v>
+        <v>0.03477001584817839</v>
       </c>
       <c r="D63">
-        <v>0.09254503555981587</v>
+        <v>0.07060426185062797</v>
       </c>
       <c r="E63">
-        <v>-0.01291204212324021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02770399345410174</v>
+      </c>
+      <c r="F63">
+        <v>0.02009669769261964</v>
+      </c>
+      <c r="G63">
+        <v>0.006854768890199348</v>
+      </c>
+      <c r="H63">
+        <v>0.06047544483546707</v>
+      </c>
+      <c r="I63">
+        <v>-0.009150599659993357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06447281991088706</v>
+        <v>0.02098556534757253</v>
       </c>
       <c r="C64">
-        <v>-0.07885691687171946</v>
+        <v>0.1042689754484187</v>
       </c>
       <c r="D64">
-        <v>0.03922733530628392</v>
+        <v>0.02607251890145879</v>
       </c>
       <c r="E64">
-        <v>-0.02056176879188109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02858361063064948</v>
+      </c>
+      <c r="F64">
+        <v>0.02495985376882524</v>
+      </c>
+      <c r="G64">
+        <v>-0.04271187863298665</v>
+      </c>
+      <c r="H64">
+        <v>0.1159491842338714</v>
+      </c>
+      <c r="I64">
+        <v>-0.06258907959709115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02727325174053924</v>
+        <v>0.02206343343053219</v>
       </c>
       <c r="C65">
-        <v>-0.01573432846181787</v>
+        <v>0.04035747643891596</v>
       </c>
       <c r="D65">
-        <v>0.119316522015422</v>
+        <v>0.1200132636026386</v>
       </c>
       <c r="E65">
-        <v>-0.003377430691740085</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04569274542320147</v>
+      </c>
+      <c r="F65">
+        <v>0.001167391570688636</v>
+      </c>
+      <c r="G65">
+        <v>-0.02419890901839178</v>
+      </c>
+      <c r="H65">
+        <v>0.04485435556341875</v>
+      </c>
+      <c r="I65">
+        <v>-0.0217123895074001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02306305247581393</v>
+        <v>0.001415624957322123</v>
       </c>
       <c r="C66">
-        <v>-0.06313105414624742</v>
+        <v>0.08946220348515875</v>
       </c>
       <c r="D66">
-        <v>0.1213498427436537</v>
+        <v>0.1285394878796713</v>
       </c>
       <c r="E66">
-        <v>0.02217149906423532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03355670313440374</v>
+      </c>
+      <c r="F66">
+        <v>-0.01029790901627117</v>
+      </c>
+      <c r="G66">
+        <v>0.0102807234810697</v>
+      </c>
+      <c r="H66">
+        <v>0.06585319113590393</v>
+      </c>
+      <c r="I66">
+        <v>-0.06815199374221442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02675798063466984</v>
+        <v>0.02316059398808425</v>
       </c>
       <c r="C67">
-        <v>-0.01725027337383651</v>
+        <v>0.02762170097798736</v>
       </c>
       <c r="D67">
-        <v>0.03976418875121294</v>
+        <v>0.03403723246570482</v>
       </c>
       <c r="E67">
-        <v>0.01707687590104428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003778059513268587</v>
+      </c>
+      <c r="F67">
+        <v>-0.0293380138031979</v>
+      </c>
+      <c r="G67">
+        <v>0.01078416928737836</v>
+      </c>
+      <c r="H67">
+        <v>0.05960132737007942</v>
+      </c>
+      <c r="I67">
+        <v>0.01955812534485191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1960340479164918</v>
+        <v>0.2720328395450116</v>
       </c>
       <c r="C68">
-        <v>0.1693950264128039</v>
+        <v>-0.06890443386475448</v>
       </c>
       <c r="D68">
-        <v>0.03285724010791204</v>
+        <v>0.03756311872100812</v>
       </c>
       <c r="E68">
-        <v>-0.01180445929425798</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001088235796711505</v>
+      </c>
+      <c r="F68">
+        <v>0.02235676490268478</v>
+      </c>
+      <c r="G68">
+        <v>0.05746210496942709</v>
+      </c>
+      <c r="H68">
+        <v>-0.05226553482399456</v>
+      </c>
+      <c r="I68">
+        <v>0.09031983126622725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06437253824559948</v>
+        <v>0.01879452794919675</v>
       </c>
       <c r="C69">
-        <v>-0.1133267493085678</v>
+        <v>0.1189908201388847</v>
       </c>
       <c r="D69">
-        <v>0.08197645250284874</v>
+        <v>0.03575048063658846</v>
       </c>
       <c r="E69">
-        <v>-0.0142156334423687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0035667909950148</v>
+      </c>
+      <c r="F69">
+        <v>-0.01151759779319522</v>
+      </c>
+      <c r="G69">
+        <v>-0.02798999104299447</v>
+      </c>
+      <c r="H69">
+        <v>0.04277158984623938</v>
+      </c>
+      <c r="I69">
+        <v>0.07866011007431306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2011914105685252</v>
+        <v>0.271430562022565</v>
       </c>
       <c r="C71">
-        <v>0.190558693571384</v>
+        <v>-0.08464045176443055</v>
       </c>
       <c r="D71">
-        <v>0.0243077691616944</v>
+        <v>0.02116238184855344</v>
       </c>
       <c r="E71">
-        <v>-0.01639363028687154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008677986827402987</v>
+      </c>
+      <c r="F71">
+        <v>0.01397318236577239</v>
+      </c>
+      <c r="G71">
+        <v>0.03155700629042055</v>
+      </c>
+      <c r="H71">
+        <v>0.01195524058763833</v>
+      </c>
+      <c r="I71">
+        <v>0.1375921946931508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1101243635553777</v>
+        <v>0.05741932440482293</v>
       </c>
       <c r="C72">
-        <v>-0.06680514631685408</v>
+        <v>0.1222052064939319</v>
       </c>
       <c r="D72">
-        <v>0.1016407276850278</v>
+        <v>0.06303678625142999</v>
       </c>
       <c r="E72">
-        <v>0.04892044976748993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08506652406665188</v>
+      </c>
+      <c r="F72">
+        <v>-0.0165929867827152</v>
+      </c>
+      <c r="G72">
+        <v>-0.02349376071915351</v>
+      </c>
+      <c r="H72">
+        <v>0.05659048232193659</v>
+      </c>
+      <c r="I72">
+        <v>-0.06566729552273333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1801231190490214</v>
+        <v>0.1366176925055336</v>
       </c>
       <c r="C73">
-        <v>-0.0561470315863374</v>
+        <v>0.1415762348519854</v>
       </c>
       <c r="D73">
-        <v>0.2634959926698994</v>
+        <v>0.1047657727281526</v>
       </c>
       <c r="E73">
-        <v>0.260331048360641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3680235963804602</v>
+      </c>
+      <c r="F73">
+        <v>-0.2510329793488892</v>
+      </c>
+      <c r="G73">
+        <v>-0.425584696908917</v>
+      </c>
+      <c r="H73">
+        <v>-0.1273975355931967</v>
+      </c>
+      <c r="I73">
+        <v>-0.0413330176138559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1133654388541294</v>
+        <v>0.05229744734199202</v>
       </c>
       <c r="C74">
-        <v>-0.1105482436708803</v>
+        <v>0.1484876484514012</v>
       </c>
       <c r="D74">
-        <v>-0.02002917928964516</v>
+        <v>-0.037772336740881</v>
       </c>
       <c r="E74">
-        <v>-0.04101396781124835</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01174497784186364</v>
+      </c>
+      <c r="F74">
+        <v>0.03682157882397166</v>
+      </c>
+      <c r="G74">
+        <v>0.0007369639923299645</v>
+      </c>
+      <c r="H74">
+        <v>-0.01701302235483304</v>
+      </c>
+      <c r="I74">
+        <v>0.09526165482581621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.244937168306254</v>
+        <v>0.1156237300108786</v>
       </c>
       <c r="C75">
-        <v>-0.1876240275215839</v>
+        <v>0.2704730444993734</v>
       </c>
       <c r="D75">
-        <v>-0.1086124665937483</v>
+        <v>-0.1311180264762505</v>
       </c>
       <c r="E75">
-        <v>0.01885862043027365</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09088947755820033</v>
+      </c>
+      <c r="F75">
+        <v>-0.04152886153027736</v>
+      </c>
+      <c r="G75">
+        <v>0.09706614133637628</v>
+      </c>
+      <c r="H75">
+        <v>-0.008914721132423651</v>
+      </c>
+      <c r="I75">
+        <v>0.06912602630037559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1476791433503774</v>
+        <v>0.0665446100651847</v>
       </c>
       <c r="C76">
-        <v>-0.1313786161307622</v>
+        <v>0.1836132245123759</v>
       </c>
       <c r="D76">
-        <v>0.02081112257607154</v>
+        <v>-0.02949465008214849</v>
       </c>
       <c r="E76">
-        <v>-0.01161390674324474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02511109861104845</v>
+      </c>
+      <c r="F76">
+        <v>0.0004494062029506796</v>
+      </c>
+      <c r="G76">
+        <v>0.04127655712650044</v>
+      </c>
+      <c r="H76">
+        <v>0.02573346379994724</v>
+      </c>
+      <c r="I76">
+        <v>0.08139142267334094</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01528246071856042</v>
+        <v>0.02504999684817997</v>
       </c>
       <c r="C77">
-        <v>-0.0738129136485314</v>
+        <v>0.08859476826346686</v>
       </c>
       <c r="D77">
-        <v>0.04577721295271887</v>
+        <v>0.2783001243449222</v>
       </c>
       <c r="E77">
-        <v>-0.1986342319818611</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7773379777331543</v>
+      </c>
+      <c r="F77">
+        <v>-0.3165017964234627</v>
+      </c>
+      <c r="G77">
+        <v>-0.2934998673541925</v>
+      </c>
+      <c r="H77">
+        <v>-0.1945362160050078</v>
+      </c>
+      <c r="I77">
+        <v>0.01993037620495514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02747569190707867</v>
+        <v>0.01209913708484671</v>
       </c>
       <c r="C78">
-        <v>-0.06475493410938392</v>
+        <v>0.08603758078280475</v>
       </c>
       <c r="D78">
-        <v>0.1494585075000072</v>
+        <v>0.1329589760191229</v>
       </c>
       <c r="E78">
-        <v>-0.04469963297621411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.05159440210269165</v>
+      </c>
+      <c r="F78">
+        <v>0.05136507733338665</v>
+      </c>
+      <c r="G78">
+        <v>0.03568460654823702</v>
+      </c>
+      <c r="H78">
+        <v>0.02521075071900275</v>
+      </c>
+      <c r="I78">
+        <v>0.1085727019847817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09912172330441828</v>
+        <v>0.03456595261524511</v>
       </c>
       <c r="C79">
-        <v>-0.1651991221506302</v>
+        <v>0.1875984306552426</v>
       </c>
       <c r="D79">
-        <v>-0.09494712948020033</v>
+        <v>-0.06804347170803687</v>
       </c>
       <c r="E79">
-        <v>-0.8108859718155811</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1144263642563403</v>
+      </c>
+      <c r="F79">
+        <v>0.801845367080234</v>
+      </c>
+      <c r="G79">
+        <v>-0.4009618144645603</v>
+      </c>
+      <c r="H79">
+        <v>-0.2130334104007818</v>
+      </c>
+      <c r="I79">
+        <v>-0.1306008045191697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007314504387007401</v>
+        <v>0.0005792859933661792</v>
       </c>
       <c r="C80">
-        <v>-0.04613290151851046</v>
+        <v>0.04531332492271988</v>
       </c>
       <c r="D80">
-        <v>0.04849635222711399</v>
+        <v>0.04414670408717183</v>
       </c>
       <c r="E80">
-        <v>0.006502471909430554</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02335221660797372</v>
+      </c>
+      <c r="F80">
+        <v>0.003551785095063241</v>
+      </c>
+      <c r="G80">
+        <v>0.02091562713337526</v>
+      </c>
+      <c r="H80">
+        <v>0.01042103273536963</v>
+      </c>
+      <c r="I80">
+        <v>0.06713472460912621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1246593247083781</v>
+        <v>0.04577358331222044</v>
       </c>
       <c r="C81">
-        <v>-0.1273654968948375</v>
+        <v>0.1669593619061865</v>
       </c>
       <c r="D81">
-        <v>-0.07318333555039999</v>
+        <v>-0.07842985052881946</v>
       </c>
       <c r="E81">
-        <v>-0.06511568510910744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06962414311369794</v>
+      </c>
+      <c r="F81">
+        <v>0.04660156370697442</v>
+      </c>
+      <c r="G81">
+        <v>0.05203789476612177</v>
+      </c>
+      <c r="H81">
+        <v>0.05914607984682581</v>
+      </c>
+      <c r="I81">
+        <v>0.1154927562480035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2674718574862205</v>
+        <v>0.09963152110733843</v>
       </c>
       <c r="C82">
-        <v>-0.2839282560477202</v>
+        <v>0.3313942529716106</v>
       </c>
       <c r="D82">
-        <v>-0.2013614456562815</v>
+        <v>-0.2241623698429522</v>
       </c>
       <c r="E82">
-        <v>0.1316098959682619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04637974793094786</v>
+      </c>
+      <c r="F82">
+        <v>-0.1215669228948578</v>
+      </c>
+      <c r="G82">
+        <v>0.09217234379449887</v>
+      </c>
+      <c r="H82">
+        <v>0.09446015768694714</v>
+      </c>
+      <c r="I82">
+        <v>0.05276296091365455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003822606541567697</v>
+        <v>-0.01335612060803457</v>
       </c>
       <c r="C83">
-        <v>-0.05228580368992347</v>
+        <v>0.03183417156688725</v>
       </c>
       <c r="D83">
-        <v>0.01177138852820474</v>
+        <v>0.03761228356237723</v>
       </c>
       <c r="E83">
-        <v>-0.05577212442997708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09729562187388656</v>
+      </c>
+      <c r="F83">
+        <v>0.03363170886860255</v>
+      </c>
+      <c r="G83">
+        <v>0.06038623230204244</v>
+      </c>
+      <c r="H83">
+        <v>0.01322803163622589</v>
+      </c>
+      <c r="I83">
+        <v>0.4621967041259982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0007140436660977583</v>
+        <v>-0.003967480060435245</v>
       </c>
       <c r="C84">
-        <v>0.0018410903475185</v>
+        <v>0.01760199172420189</v>
       </c>
       <c r="D84">
-        <v>0.004273527188824175</v>
+        <v>0.04581873882917169</v>
       </c>
       <c r="E84">
-        <v>-0.0004143199900526135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01225622013256495</v>
+      </c>
+      <c r="F84">
+        <v>0.0225128076077695</v>
+      </c>
+      <c r="G84">
+        <v>0.05251680410108131</v>
+      </c>
+      <c r="H84">
+        <v>0.01061717577068671</v>
+      </c>
+      <c r="I84">
+        <v>-0.05388909438344539</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1473801207031728</v>
+        <v>0.06095380910420456</v>
       </c>
       <c r="C85">
-        <v>-0.1329535831493629</v>
+        <v>0.1850299490824734</v>
       </c>
       <c r="D85">
-        <v>-0.04276293445699621</v>
+        <v>-0.08805388950314486</v>
       </c>
       <c r="E85">
-        <v>-0.03031240144721517</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0004144500947006581</v>
+      </c>
+      <c r="F85">
+        <v>0.07711955722260765</v>
+      </c>
+      <c r="G85">
+        <v>0.03297597926738961</v>
+      </c>
+      <c r="H85">
+        <v>-0.001922434808849483</v>
+      </c>
+      <c r="I85">
+        <v>0.07504304969629357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01389284876215936</v>
+        <v>0.00977199786517653</v>
       </c>
       <c r="C86">
-        <v>-0.01110840621698866</v>
+        <v>0.03045806036035825</v>
       </c>
       <c r="D86">
-        <v>0.07656080619372678</v>
+        <v>0.1043882480062949</v>
       </c>
       <c r="E86">
-        <v>-0.04672753507052922</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0368430886518343</v>
+      </c>
+      <c r="F86">
+        <v>-0.01068436966678502</v>
+      </c>
+      <c r="G86">
+        <v>-0.02314434993963824</v>
+      </c>
+      <c r="H86">
+        <v>0.01290895776343662</v>
+      </c>
+      <c r="I86">
+        <v>0.08291957707424899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01523631539495165</v>
+        <v>0.008350517929578449</v>
       </c>
       <c r="C87">
-        <v>-0.02663908994317627</v>
+        <v>0.05338229823739668</v>
       </c>
       <c r="D87">
-        <v>0.1295511671333196</v>
+        <v>0.1441697925698193</v>
       </c>
       <c r="E87">
-        <v>-0.04697160819744366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.002606821157299227</v>
+      </c>
+      <c r="F87">
+        <v>0.04108772383742604</v>
+      </c>
+      <c r="G87">
+        <v>0.06308804625149157</v>
+      </c>
+      <c r="H87">
+        <v>0.02620127508460451</v>
+      </c>
+      <c r="I87">
+        <v>-0.00889326853577877</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05819393056563638</v>
+        <v>0.03001244308050204</v>
       </c>
       <c r="C88">
-        <v>-0.04459675021673516</v>
+        <v>0.06743879548001672</v>
       </c>
       <c r="D88">
-        <v>0.02674954630389497</v>
+        <v>0.005309107461678179</v>
       </c>
       <c r="E88">
-        <v>-0.03023166853081025</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01324265097867506</v>
+      </c>
+      <c r="F88">
+        <v>0.02104453321518497</v>
+      </c>
+      <c r="G88">
+        <v>0.002701182190866381</v>
+      </c>
+      <c r="H88">
+        <v>0.02054092095025683</v>
+      </c>
+      <c r="I88">
+        <v>0.01781818042054255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3032015648352823</v>
+        <v>0.4111268464740648</v>
       </c>
       <c r="C89">
-        <v>0.3470382635874417</v>
+        <v>-0.165406173881442</v>
       </c>
       <c r="D89">
-        <v>0.01153155354712702</v>
+        <v>0.0218125934640801</v>
       </c>
       <c r="E89">
-        <v>-0.09677687688538143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02512092275913936</v>
+      </c>
+      <c r="F89">
+        <v>0.08508028872680137</v>
+      </c>
+      <c r="G89">
+        <v>0.06798742474491157</v>
+      </c>
+      <c r="H89">
+        <v>0.1515404032774255</v>
+      </c>
+      <c r="I89">
+        <v>-0.2084930066977238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2422907784825969</v>
+        <v>0.3162674009805968</v>
       </c>
       <c r="C90">
-        <v>0.2551484801733407</v>
+        <v>-0.1108663970840223</v>
       </c>
       <c r="D90">
-        <v>0.03522015813609124</v>
+        <v>0.033733914998352</v>
       </c>
       <c r="E90">
-        <v>0.00737619915339527</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01613824312902114</v>
+      </c>
+      <c r="F90">
+        <v>-0.018378417592225</v>
+      </c>
+      <c r="G90">
+        <v>0.05810741496746121</v>
+      </c>
+      <c r="H90">
+        <v>-0.02955245615975432</v>
+      </c>
+      <c r="I90">
+        <v>0.078220711051406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1638144545811202</v>
+        <v>0.07122724512864148</v>
       </c>
       <c r="C91">
-        <v>-0.179872138491848</v>
+        <v>0.2128636851502359</v>
       </c>
       <c r="D91">
-        <v>-0.09362004339905723</v>
+        <v>-0.1044479104749943</v>
       </c>
       <c r="E91">
-        <v>-0.09600099385492798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06638431296908776</v>
+      </c>
+      <c r="F91">
+        <v>0.06422641586359507</v>
+      </c>
+      <c r="G91">
+        <v>0.006810386140818035</v>
+      </c>
+      <c r="H91">
+        <v>-0.0006914389102974376</v>
+      </c>
+      <c r="I91">
+        <v>0.1032262295355362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2253147555966457</v>
+        <v>0.3382509144443654</v>
       </c>
       <c r="C92">
-        <v>0.2709451699640736</v>
+        <v>-0.1452104546528233</v>
       </c>
       <c r="D92">
-        <v>-0.05385706952202805</v>
+        <v>-0.004638013885366651</v>
       </c>
       <c r="E92">
-        <v>-0.05005365712841978</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06903646492942614</v>
+      </c>
+      <c r="F92">
+        <v>0.02063494017902963</v>
+      </c>
+      <c r="G92">
+        <v>0.02403005588774193</v>
+      </c>
+      <c r="H92">
+        <v>0.02976001473578156</v>
+      </c>
+      <c r="I92">
+        <v>-0.241400831197691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.264680256148222</v>
+        <v>0.3337979050472746</v>
       </c>
       <c r="C93">
-        <v>0.2665983539447142</v>
+        <v>-0.1178664408753432</v>
       </c>
       <c r="D93">
-        <v>0.01185925463180243</v>
+        <v>-0.01779015072552884</v>
       </c>
       <c r="E93">
-        <v>-0.003194817477456641</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.03224422231645314</v>
+      </c>
+      <c r="F93">
+        <v>0.01447984572816298</v>
+      </c>
+      <c r="G93">
+        <v>-0.01623092698557572</v>
+      </c>
+      <c r="H93">
+        <v>7.571347591725597e-05</v>
+      </c>
+      <c r="I93">
+        <v>0.06102250859115321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3098965170628158</v>
+        <v>0.1381444220843692</v>
       </c>
       <c r="C94">
-        <v>-0.2562871786826046</v>
+        <v>0.3637246615898477</v>
       </c>
       <c r="D94">
-        <v>-0.3577617164437231</v>
+        <v>-0.3377870701133378</v>
       </c>
       <c r="E94">
-        <v>0.2000860294526182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04560734181941682</v>
+      </c>
+      <c r="F94">
+        <v>-0.1116275253817017</v>
+      </c>
+      <c r="G94">
+        <v>0.3047600351208305</v>
+      </c>
+      <c r="H94">
+        <v>-0.06170746295632666</v>
+      </c>
+      <c r="I94">
+        <v>-0.3403567620079475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01685572476618829</v>
+        <v>0.01857222563947288</v>
       </c>
       <c r="C95">
-        <v>-0.03501999761408271</v>
+        <v>0.05968394290834164</v>
       </c>
       <c r="D95">
-        <v>0.04110004607382901</v>
+        <v>0.1061088256863499</v>
       </c>
       <c r="E95">
-        <v>-0.08073696211028349</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1874490682619921</v>
+      </c>
+      <c r="F95">
+        <v>-0.06900099235686222</v>
+      </c>
+      <c r="G95">
+        <v>-0.1057117277873935</v>
+      </c>
+      <c r="H95">
+        <v>0.3931387155982679</v>
+      </c>
+      <c r="I95">
+        <v>-0.4559989620227388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0006474030199356107</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0006350293871389163</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0009780070972112615</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.002391436906773083</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005844092600284214</v>
+      </c>
+      <c r="G97">
+        <v>-0.000528912028565033</v>
+      </c>
+      <c r="H97">
+        <v>0.002756191122685486</v>
+      </c>
+      <c r="I97">
+        <v>-0.002725063402483791</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1522142684735146</v>
+        <v>0.1149658693001733</v>
       </c>
       <c r="C98">
-        <v>-0.07440189795650484</v>
+        <v>0.1431084230582531</v>
       </c>
       <c r="D98">
-        <v>0.1469939314161495</v>
+        <v>0.06498309902072648</v>
       </c>
       <c r="E98">
-        <v>0.1949012069262952</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2626314924000663</v>
+      </c>
+      <c r="F98">
+        <v>-0.1812210199692797</v>
+      </c>
+      <c r="G98">
+        <v>-0.2768217347325822</v>
+      </c>
+      <c r="H98">
+        <v>-0.1514401776188239</v>
+      </c>
+      <c r="I98">
+        <v>-0.02210753089235233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0002831153030336453</v>
+        <v>-0.002675412010817248</v>
       </c>
       <c r="C101">
-        <v>-0.02036789692030919</v>
+        <v>0.02916927726123619</v>
       </c>
       <c r="D101">
-        <v>0.09655860456821513</v>
+        <v>0.09932179819451285</v>
       </c>
       <c r="E101">
-        <v>-0.01539282820695045</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03941776650995349</v>
+      </c>
+      <c r="F101">
+        <v>0.03793279010623898</v>
+      </c>
+      <c r="G101">
+        <v>0.01374333839975532</v>
+      </c>
+      <c r="H101">
+        <v>0.1398579167294912</v>
+      </c>
+      <c r="I101">
+        <v>0.02002928821312079</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.114597578053731</v>
+        <v>0.03399217610074919</v>
       </c>
       <c r="C102">
-        <v>-0.1506077930465242</v>
+        <v>0.1528417397386305</v>
       </c>
       <c r="D102">
-        <v>-0.06655469126805762</v>
+        <v>-0.09128249696716445</v>
       </c>
       <c r="E102">
-        <v>0.04748171816247812</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02932526701770008</v>
+      </c>
+      <c r="F102">
+        <v>-0.06764929688007155</v>
+      </c>
+      <c r="G102">
+        <v>-0.008976588200038308</v>
+      </c>
+      <c r="H102">
+        <v>0.04981266009746221</v>
+      </c>
+      <c r="I102">
+        <v>0.02350601550545012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
